--- a/nmadb/480060.xlsx
+++ b/nmadb/480060.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7155"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -785,14 +785,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -875,6 +875,9 @@
     </row>
     <row r="3" spans="1:21">
       <c r="B3" s="9"/>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
@@ -921,6 +924,9 @@
     </row>
     <row r="5" spans="1:21">
       <c r="B5" s="9"/>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
@@ -966,6 +972,9 @@
       </c>
     </row>
     <row r="7" spans="1:21">
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
@@ -1003,6 +1012,9 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:21">
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
@@ -1040,6 +1052,9 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:21">
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
@@ -1073,6 +1088,9 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:21">
+      <c r="C13" s="4">
+        <v>6</v>
+      </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
@@ -1104,6 +1122,9 @@
       </c>
     </row>
     <row r="15" spans="1:21">
+      <c r="C15" s="4">
+        <v>7</v>
+      </c>
       <c r="D15" s="4">
         <v>1</v>
       </c>
@@ -1135,6 +1156,9 @@
       </c>
     </row>
     <row r="17" spans="1:6">
+      <c r="C17" s="4">
+        <v>8</v>
+      </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
@@ -1166,6 +1190,9 @@
       </c>
     </row>
     <row r="19" spans="1:6">
+      <c r="C19" s="4">
+        <v>9</v>
+      </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
@@ -1197,6 +1224,9 @@
       </c>
     </row>
     <row r="21" spans="1:6">
+      <c r="C21" s="4">
+        <v>10</v>
+      </c>
       <c r="D21" s="4">
         <v>1</v>
       </c>
@@ -1228,6 +1258,9 @@
       </c>
     </row>
     <row r="23" spans="1:6">
+      <c r="C23" s="4">
+        <v>11</v>
+      </c>
       <c r="D23" s="4">
         <v>1</v>
       </c>
@@ -1259,6 +1292,9 @@
       </c>
     </row>
     <row r="25" spans="1:6">
+      <c r="C25" s="4">
+        <v>12</v>
+      </c>
       <c r="D25" s="4">
         <v>1</v>
       </c>
@@ -1290,6 +1326,9 @@
       </c>
     </row>
     <row r="27" spans="1:6">
+      <c r="C27" s="4">
+        <v>13</v>
+      </c>
       <c r="D27" s="4">
         <v>1</v>
       </c>
@@ -1321,6 +1360,9 @@
       </c>
     </row>
     <row r="29" spans="1:6">
+      <c r="C29" s="4">
+        <v>14</v>
+      </c>
       <c r="D29" s="4">
         <v>1</v>
       </c>
@@ -1352,6 +1394,9 @@
       </c>
     </row>
     <row r="31" spans="1:6">
+      <c r="C31" s="4">
+        <v>15</v>
+      </c>
       <c r="D31" s="4">
         <v>5</v>
       </c>
@@ -1383,6 +1428,9 @@
       </c>
     </row>
     <row r="33" spans="1:6">
+      <c r="C33" s="4">
+        <v>16</v>
+      </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
@@ -1414,6 +1462,9 @@
       </c>
     </row>
     <row r="35" spans="1:6">
+      <c r="C35" s="4">
+        <v>17</v>
+      </c>
       <c r="D35" s="4">
         <v>1</v>
       </c>
@@ -1445,6 +1496,9 @@
       </c>
     </row>
     <row r="37" spans="1:6">
+      <c r="C37" s="4">
+        <v>18</v>
+      </c>
       <c r="D37" s="4">
         <v>1</v>
       </c>
@@ -1476,6 +1530,9 @@
       </c>
     </row>
     <row r="39" spans="1:6">
+      <c r="C39" s="4">
+        <v>19</v>
+      </c>
       <c r="D39" s="4">
         <v>4</v>
       </c>
@@ -1487,6 +1544,9 @@
       </c>
     </row>
     <row r="40" spans="1:6">
+      <c r="C40" s="4">
+        <v>19</v>
+      </c>
       <c r="D40" s="4">
         <v>1</v>
       </c>
@@ -1519,6 +1579,9 @@
     </row>
     <row r="42" spans="1:6">
       <c r="B42" s="9"/>
+      <c r="C42" s="4">
+        <v>20</v>
+      </c>
       <c r="D42" s="4">
         <v>1</v>
       </c>
@@ -1550,6 +1613,9 @@
       </c>
     </row>
     <row r="44" spans="1:6">
+      <c r="C44" s="4">
+        <v>21</v>
+      </c>
       <c r="D44" s="4">
         <v>1</v>
       </c>
@@ -1581,6 +1647,9 @@
       </c>
     </row>
     <row r="46" spans="1:6">
+      <c r="C46" s="4">
+        <v>22</v>
+      </c>
       <c r="D46" s="4">
         <v>1</v>
       </c>
@@ -1612,6 +1681,9 @@
       </c>
     </row>
     <row r="48" spans="1:6">
+      <c r="C48" s="4">
+        <v>23</v>
+      </c>
       <c r="D48" s="4">
         <v>1</v>
       </c>
@@ -1643,6 +1715,9 @@
       </c>
     </row>
     <row r="50" spans="1:6">
+      <c r="C50" s="4">
+        <v>24</v>
+      </c>
       <c r="D50" s="4">
         <v>1</v>
       </c>
@@ -1674,6 +1749,9 @@
       </c>
     </row>
     <row r="52" spans="1:6">
+      <c r="C52" s="4">
+        <v>25</v>
+      </c>
       <c r="D52" s="4">
         <v>5</v>
       </c>
@@ -1705,6 +1783,9 @@
       </c>
     </row>
     <row r="54" spans="1:6">
+      <c r="C54" s="4">
+        <v>26</v>
+      </c>
       <c r="D54" s="4">
         <v>1</v>
       </c>
@@ -1736,6 +1817,9 @@
       </c>
     </row>
     <row r="56" spans="1:6">
+      <c r="C56" s="4">
+        <v>27</v>
+      </c>
       <c r="D56" s="4">
         <v>1</v>
       </c>
@@ -1767,6 +1851,9 @@
       </c>
     </row>
     <row r="58" spans="1:6">
+      <c r="C58" s="4">
+        <v>28</v>
+      </c>
       <c r="D58" s="4">
         <v>1</v>
       </c>
@@ -1798,6 +1885,9 @@
       </c>
     </row>
     <row r="60" spans="1:6">
+      <c r="C60" s="4">
+        <v>29</v>
+      </c>
       <c r="D60" s="4">
         <v>1</v>
       </c>
@@ -1829,6 +1919,9 @@
       </c>
     </row>
     <row r="62" spans="1:6">
+      <c r="C62" s="4">
+        <v>30</v>
+      </c>
       <c r="D62" s="4">
         <v>1</v>
       </c>
@@ -1860,6 +1953,9 @@
       </c>
     </row>
     <row r="64" spans="1:6">
+      <c r="C64" s="4">
+        <v>31</v>
+      </c>
       <c r="D64" s="4">
         <v>1</v>
       </c>
@@ -1891,6 +1987,9 @@
       </c>
     </row>
     <row r="66" spans="1:6">
+      <c r="C66" s="4">
+        <v>32</v>
+      </c>
       <c r="D66" s="4">
         <v>1</v>
       </c>
@@ -1922,6 +2021,9 @@
       </c>
     </row>
     <row r="68" spans="1:6">
+      <c r="C68" s="4">
+        <v>33</v>
+      </c>
       <c r="D68" s="4">
         <v>2</v>
       </c>
@@ -1953,6 +2055,9 @@
       </c>
     </row>
     <row r="70" spans="1:6">
+      <c r="C70" s="4">
+        <v>34</v>
+      </c>
       <c r="D70" s="4">
         <v>1</v>
       </c>
@@ -1984,6 +2089,9 @@
       </c>
     </row>
     <row r="72" spans="1:6">
+      <c r="C72" s="4">
+        <v>35</v>
+      </c>
       <c r="D72" s="4">
         <v>1</v>
       </c>
@@ -2015,6 +2123,9 @@
       </c>
     </row>
     <row r="74" spans="1:6">
+      <c r="C74" s="4">
+        <v>36</v>
+      </c>
       <c r="D74" s="4">
         <v>1</v>
       </c>
@@ -2046,6 +2157,9 @@
       </c>
     </row>
     <row r="76" spans="1:6">
+      <c r="C76" s="4">
+        <v>37</v>
+      </c>
       <c r="D76" s="4">
         <v>1</v>
       </c>
@@ -2077,6 +2191,9 @@
       </c>
     </row>
     <row r="78" spans="1:6">
+      <c r="C78" s="4">
+        <v>38</v>
+      </c>
       <c r="D78" s="4">
         <v>1</v>
       </c>
@@ -2108,6 +2225,9 @@
       </c>
     </row>
     <row r="80" spans="1:6">
+      <c r="C80" s="4">
+        <v>39</v>
+      </c>
       <c r="D80" s="4">
         <v>1</v>
       </c>
@@ -2139,6 +2259,9 @@
       </c>
     </row>
     <row r="82" spans="1:6">
+      <c r="C82" s="4">
+        <v>40</v>
+      </c>
       <c r="D82" s="4">
         <v>4</v>
       </c>
@@ -2170,6 +2293,9 @@
       </c>
     </row>
     <row r="84" spans="1:6">
+      <c r="C84" s="4">
+        <v>41</v>
+      </c>
       <c r="D84" s="4">
         <v>4</v>
       </c>
@@ -2201,6 +2327,9 @@
       </c>
     </row>
     <row r="86" spans="1:6">
+      <c r="C86" s="4">
+        <v>42</v>
+      </c>
       <c r="D86" s="4">
         <v>2</v>
       </c>
@@ -2232,6 +2361,9 @@
       </c>
     </row>
     <row r="88" spans="1:6">
+      <c r="C88" s="4">
+        <v>43</v>
+      </c>
       <c r="D88" s="4">
         <v>1</v>
       </c>
@@ -2263,6 +2395,9 @@
       </c>
     </row>
     <row r="90" spans="1:6">
+      <c r="C90" s="4">
+        <v>44</v>
+      </c>
       <c r="D90" s="4">
         <v>1</v>
       </c>
@@ -2294,6 +2429,9 @@
       </c>
     </row>
     <row r="92" spans="1:6">
+      <c r="C92" s="4">
+        <v>45</v>
+      </c>
       <c r="D92" s="4">
         <v>1</v>
       </c>
@@ -2325,6 +2463,9 @@
       </c>
     </row>
     <row r="94" spans="1:6">
+      <c r="C94" s="4">
+        <v>46</v>
+      </c>
       <c r="D94" s="4">
         <v>1</v>
       </c>
